--- a/output/3Y_P19_KFSDIV.xlsx
+++ b/output/3Y_P19_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -3521,10 +3524,10 @@
         <v>118652.3912</v>
       </c>
       <c r="K13" s="1">
-        <v>102270.0286</v>
+        <v>102272.1647</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5161</v>
+        <v>13.5164</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -3574,10 +3577,10 @@
         <v>117421.4164</v>
       </c>
       <c r="K14" s="1">
-        <v>116895.6281</v>
+        <v>116897.7643</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5736</v>
+        <v>13.5739</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -3627,10 +3630,10 @@
         <v>128832.4422</v>
       </c>
       <c r="K15" s="1">
-        <v>138894.5199</v>
+        <v>138896.6561</v>
       </c>
       <c r="L15" s="1">
-        <v>13.3528</v>
+        <v>13.353</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -3680,10 +3683,10 @@
         <v>138650.1583</v>
       </c>
       <c r="K16" s="1">
-        <v>148894.5199</v>
+        <v>148896.6561</v>
       </c>
       <c r="L16" s="1">
-        <v>13.287</v>
+        <v>13.2872</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -3733,10 +3736,10 @@
         <v>159690.902</v>
       </c>
       <c r="K17" s="1">
-        <v>158894.5199</v>
+        <v>158896.6561</v>
       </c>
       <c r="L17" s="1">
-        <v>13.229</v>
+        <v>13.2292</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -3786,10 +3789,10 @@
         <v>175267.6416</v>
       </c>
       <c r="K18" s="1">
-        <v>164267.8279</v>
+        <v>164269.964</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2189</v>
+        <v>13.2191</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -3839,10 +3842,10 @@
         <v>191967.8146</v>
       </c>
       <c r="K19" s="1">
-        <v>168687.2705</v>
+        <v>168689.4067</v>
       </c>
       <c r="L19" s="1">
-        <v>13.2231</v>
+        <v>13.2233</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -3892,10 +3895,10 @@
         <v>217375.7916</v>
       </c>
       <c r="K20" s="1">
-        <v>171982.5992</v>
+        <v>171984.7354</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2356</v>
+        <v>13.2358</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -3945,10 +3948,10 @@
         <v>236945.0571</v>
       </c>
       <c r="K21" s="1">
-        <v>172303.3865</v>
+        <v>172305.5226</v>
       </c>
       <c r="L21" s="1">
-        <v>13.238</v>
+        <v>13.2381</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -3998,10 +4001,10 @@
         <v>227514.5246</v>
       </c>
       <c r="K22" s="1">
-        <v>172734.5631</v>
+        <v>172736.6993</v>
       </c>
       <c r="L22" s="1">
-        <v>13.2426</v>
+        <v>13.2428</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -4051,10 +4054,10 @@
         <v>247113.3035</v>
       </c>
       <c r="K23" s="1">
-        <v>202281.357</v>
+        <v>202283.4932</v>
       </c>
       <c r="L23" s="1">
-        <v>13.3346</v>
+        <v>13.3347</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -4104,10 +4107,10 @@
         <v>258149.8615</v>
       </c>
       <c r="K24" s="1">
-        <v>208458.986</v>
+        <v>208461.1222</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3575</v>
+        <v>13.3576</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -4157,10 +4160,10 @@
         <v>266886.4854</v>
       </c>
       <c r="K25" s="1">
-        <v>217433.6108</v>
+        <v>217435.747</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3911</v>
+        <v>13.3912</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -4210,10 +4213,10 @@
         <v>304776.4775</v>
       </c>
       <c r="K26" s="1">
-        <v>228706.167</v>
+        <v>228708.3032</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4264</v>
+        <v>13.4265</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -4263,10 +4266,10 @@
         <v>315309.1433</v>
       </c>
       <c r="K27" s="1">
-        <v>218035.2424</v>
+        <v>218080.0295</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3441</v>
+        <v>13.3468</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -4316,10 +4319,10 @@
         <v>313102.9057</v>
       </c>
       <c r="K28" s="1">
-        <v>227540.5496</v>
+        <v>227585.3367</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4188</v>
+        <v>13.4214</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -4369,10 +4372,10 @@
         <v>353785.713</v>
       </c>
       <c r="K29" s="1">
-        <v>249797.6971</v>
+        <v>249842.4842</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5218</v>
+        <v>13.5243</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -4422,10 +4425,10 @@
         <v>376619.8767</v>
       </c>
       <c r="K30" s="1">
-        <v>244265.1021</v>
+        <v>244331.9953</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4826</v>
+        <v>13.4863</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -4475,10 +4478,10 @@
         <v>390750.072</v>
       </c>
       <c r="K31" s="1">
-        <v>241419.576</v>
+        <v>241497.8316</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4557</v>
+        <v>13.4601</v>
       </c>
       <c r="M31" s="1">
         <v>0.75</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -4528,10 +4531,10 @@
         <v>425266.4831</v>
       </c>
       <c r="K32" s="1">
-        <v>247312.9049</v>
+        <v>247391.1604</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5145</v>
+        <v>13.5188</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -4581,10 +4584,10 @@
         <v>431322.666</v>
       </c>
       <c r="K33" s="1">
-        <v>244873.9175</v>
+        <v>244961.9197</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4861</v>
+        <v>13.4909</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -4634,10 +4637,10 @@
         <v>448343.9505</v>
       </c>
       <c r="K34" s="1">
-        <v>258873.6568</v>
+        <v>258961.659</v>
       </c>
       <c r="L34" s="1">
-        <v>13.6358</v>
+        <v>13.6405</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -4687,10 +4690,10 @@
         <v>437889.1078</v>
       </c>
       <c r="K35" s="1">
-        <v>278215.5621</v>
+        <v>278303.5643</v>
       </c>
       <c r="L35" s="1">
-        <v>13.7992</v>
+        <v>13.8035</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -4740,10 +4743,10 @@
         <v>431173.4129</v>
       </c>
       <c r="K36" s="1">
-        <v>308714.9273</v>
+        <v>308802.9295</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9438</v>
+        <v>13.9478</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -4793,10 +4796,10 @@
         <v>402075.8734</v>
       </c>
       <c r="K37" s="1">
-        <v>335415.4567</v>
+        <v>335503.4589</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9987</v>
+        <v>14.0024</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -4846,10 +4849,10 @@
         <v>445603.6345</v>
       </c>
       <c r="K38" s="1">
-        <v>384602.9519</v>
+        <v>384690.9541</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8672</v>
+        <v>13.8704</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -5561,10 +5564,10 @@
         <v>118732.99</v>
       </c>
       <c r="K13" s="1">
-        <v>104912.0113</v>
+        <v>104913.0598</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5221</v>
+        <v>13.5222</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -5614,10 +5617,10 @@
         <v>117178.0632</v>
       </c>
       <c r="K14" s="1">
-        <v>120220.2056</v>
+        <v>120221.2541</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5799</v>
+        <v>13.58</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -5667,10 +5670,10 @@
         <v>128599.1237</v>
       </c>
       <c r="K15" s="1">
-        <v>139027.7582</v>
+        <v>139028.8066</v>
       </c>
       <c r="L15" s="1">
-        <v>13.3899</v>
+        <v>13.39</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -5720,10 +5723,10 @@
         <v>138417.079</v>
       </c>
       <c r="K16" s="1">
-        <v>149027.7582</v>
+        <v>149028.8066</v>
       </c>
       <c r="L16" s="1">
-        <v>13.3213</v>
+        <v>13.3214</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -5773,10 +5776,10 @@
         <v>159439.8758</v>
       </c>
       <c r="K17" s="1">
-        <v>159027.7582</v>
+        <v>159028.8066</v>
       </c>
       <c r="L17" s="1">
-        <v>13.2609</v>
+        <v>13.261</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -5826,7 +5829,7 @@
         <v>175205.8904</v>
       </c>
       <c r="K18" s="1">
-        <v>170811.5554</v>
+        <v>170812.6039</v>
       </c>
       <c r="L18" s="1">
         <v>13.2374</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -5879,10 +5882,10 @@
         <v>192179.1419</v>
       </c>
       <c r="K19" s="1">
-        <v>175849.2692</v>
+        <v>175850.3177</v>
       </c>
       <c r="L19" s="1">
-        <v>13.2414</v>
+        <v>13.2415</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -5932,10 +5935,10 @@
         <v>218242.7429</v>
       </c>
       <c r="K20" s="1">
-        <v>179756.3578</v>
+        <v>179757.4063</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2552</v>
+        <v>13.2553</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -5985,10 +5988,10 @@
         <v>238253.0624</v>
       </c>
       <c r="K21" s="1">
-        <v>180595.9043</v>
+        <v>180596.9528</v>
       </c>
       <c r="L21" s="1">
-        <v>13.2611</v>
+        <v>13.2612</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -6038,7 +6041,7 @@
         <v>227869.168</v>
       </c>
       <c r="K22" s="1">
-        <v>181580.1515</v>
+        <v>181581.2</v>
       </c>
       <c r="L22" s="1">
         <v>13.2711</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -6091,10 +6094,10 @@
         <v>247945.8677</v>
       </c>
       <c r="K23" s="1">
-        <v>213135.0723</v>
+        <v>213136.1208</v>
       </c>
       <c r="L23" s="1">
-        <v>13.3604</v>
+        <v>13.3605</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -6144,10 +6147,10 @@
         <v>259036.412</v>
       </c>
       <c r="K24" s="1">
-        <v>220221.9493</v>
+        <v>220222.9978</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3845</v>
+        <v>13.3846</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -6197,10 +6200,10 @@
         <v>267698.679</v>
       </c>
       <c r="K25" s="1">
-        <v>230303.0989</v>
+        <v>230304.1474</v>
       </c>
       <c r="L25" s="1">
-        <v>13.4191</v>
+        <v>13.4192</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -6250,7 +6253,7 @@
         <v>307230.5929</v>
       </c>
       <c r="K26" s="1">
-        <v>242866.2677</v>
+        <v>242867.3162</v>
       </c>
       <c r="L26" s="1">
         <v>13.4549</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -6303,10 +6306,10 @@
         <v>317796.4782</v>
       </c>
       <c r="K27" s="1">
-        <v>232236.3227</v>
+        <v>232279.8583</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3789</v>
+        <v>13.3814</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -6356,10 +6359,10 @@
         <v>314793.2161</v>
       </c>
       <c r="K28" s="1">
-        <v>243041.5594</v>
+        <v>243085.095</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4572</v>
+        <v>13.4596</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -6409,10 +6412,10 @@
         <v>357511.8757</v>
       </c>
       <c r="K29" s="1">
-        <v>267483.8601</v>
+        <v>267527.3957</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5599</v>
+        <v>13.5622</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -6462,10 +6465,10 @@
         <v>381251.0872</v>
       </c>
       <c r="K30" s="1">
-        <v>262342.8691</v>
+        <v>262406.9462</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5265</v>
+        <v>13.5298</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -6515,10 +6518,10 @@
         <v>395683.84</v>
       </c>
       <c r="K31" s="1">
-        <v>260093.4015</v>
+        <v>260166.4608</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5071</v>
+        <v>13.5109</v>
       </c>
       <c r="M31" s="1">
         <v>0.75</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -6568,10 +6571,10 @@
         <v>432027.0247</v>
       </c>
       <c r="K32" s="1">
-        <v>267245.4169</v>
+        <v>267318.4762</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5722</v>
+        <v>13.5759</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -6621,10 +6624,10 @@
         <v>437772.6108</v>
       </c>
       <c r="K33" s="1">
-        <v>265478.4869</v>
+        <v>265558.6072</v>
       </c>
       <c r="L33" s="1">
-        <v>13.5534</v>
+        <v>13.5575</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -6674,10 +6677,10 @@
         <v>455317.7034</v>
       </c>
       <c r="K34" s="1">
-        <v>281468.8453</v>
+        <v>281548.9656</v>
       </c>
       <c r="L34" s="1">
-        <v>13.7085</v>
+        <v>13.7124</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -6727,10 +6730,10 @@
         <v>443135.2027</v>
       </c>
       <c r="K35" s="1">
-        <v>303306.403</v>
+        <v>303386.5232</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8741</v>
+        <v>13.8778</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -6780,10 +6783,10 @@
         <v>434960.5202</v>
       </c>
       <c r="K36" s="1">
-        <v>337326.5984</v>
+        <v>337406.7187</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0157</v>
+        <v>14.019</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -6833,10 +6836,10 @@
         <v>402345.7425</v>
       </c>
       <c r="K37" s="1">
-        <v>367333.288</v>
+        <v>367413.4083</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0667</v>
+        <v>14.0697</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -6886,10 +6889,10 @@
         <v>448946.802</v>
       </c>
       <c r="K38" s="1">
-        <v>421953.8002</v>
+        <v>422033.9204</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9236</v>
+        <v>13.9262</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -8343,10 +8346,10 @@
         <v>320134.1095</v>
       </c>
       <c r="K27" s="1">
-        <v>247897.1894</v>
+        <v>247939.272</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4295</v>
+        <v>13.4318</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -8396,10 +8399,10 @@
         <v>316266.7895</v>
       </c>
       <c r="K28" s="1">
-        <v>260168.766</v>
+        <v>260210.8486</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5109</v>
+        <v>13.513</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -8449,10 +8452,10 @@
         <v>361195.5371</v>
       </c>
       <c r="K29" s="1">
-        <v>287046.9621</v>
+        <v>287089.0447</v>
       </c>
       <c r="L29" s="1">
-        <v>13.6119</v>
+        <v>13.6139</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -8502,10 +8505,10 @@
         <v>385922.3259</v>
       </c>
       <c r="K30" s="1">
-        <v>282405.0577</v>
+        <v>282465.6875</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5845</v>
+        <v>13.5874</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -8555,10 +8558,10 @@
         <v>400686.3479</v>
       </c>
       <c r="K31" s="1">
-        <v>280885.1093</v>
+        <v>280951.8084</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5725</v>
+        <v>13.5757</v>
       </c>
       <c r="M31" s="1">
         <v>0.75</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -8608,10 +8611,10 @@
         <v>439032.8393</v>
       </c>
       <c r="K32" s="1">
-        <v>289500.5159</v>
+        <v>289567.215</v>
       </c>
       <c r="L32" s="1">
-        <v>13.6437</v>
+        <v>13.6469</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -8661,10 +8664,10 @@
         <v>444436.0355</v>
       </c>
       <c r="K33" s="1">
-        <v>288563.6013</v>
+        <v>288634.0445</v>
       </c>
       <c r="L33" s="1">
-        <v>13.6347</v>
+        <v>13.638</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -8714,10 +8717,10 @@
         <v>462555.3245</v>
       </c>
       <c r="K34" s="1">
-        <v>306846.7114</v>
+        <v>306917.1546</v>
       </c>
       <c r="L34" s="1">
-        <v>13.7944</v>
+        <v>13.7976</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -8767,10 +8770,10 @@
         <v>448454.9315</v>
       </c>
       <c r="K35" s="1">
-        <v>331550.0902</v>
+        <v>331620.5334</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9615</v>
+        <v>13.9644</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -8820,10 +8823,10 @@
         <v>438655.012</v>
       </c>
       <c r="K36" s="1">
-        <v>369590.5999</v>
+        <v>369661.0431</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0986</v>
+        <v>14.1013</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -8873,10 +8876,10 @@
         <v>402109.3609</v>
       </c>
       <c r="K37" s="1">
-        <v>403399.3975</v>
+        <v>403469.8407</v>
       </c>
       <c r="L37" s="1">
-        <v>14.1444</v>
+        <v>14.1469</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -8926,10 +8929,10 @@
         <v>451028.1348</v>
       </c>
       <c r="K38" s="1">
-        <v>445316.5658</v>
+        <v>445387.009</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0317</v>
+        <v>14.0339</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.4103</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.3976</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.9013</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.3527</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8804</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6268</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3636</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8711</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1252</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1934</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1176</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3311</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3637</v>
@@ -10383,10 +10386,10 @@
         <v>321171.9086</v>
       </c>
       <c r="K27" s="1">
-        <v>265984.8229</v>
+        <v>265990.1925</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5371</v>
+        <v>13.5374</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6447</v>
@@ -10436,10 +10439,10 @@
         <v>316367.4229</v>
       </c>
       <c r="K28" s="1">
-        <v>279909.3622</v>
+        <v>279914.7318</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6189</v>
+        <v>13.6191</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.486</v>
@@ -10489,10 +10492,10 @@
         <v>363504.0452</v>
       </c>
       <c r="K29" s="1">
-        <v>305885.9536</v>
+        <v>305891.3232</v>
       </c>
       <c r="L29" s="1">
-        <v>13.7026</v>
+        <v>13.7028</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.1958</v>
@@ -10542,10 +10545,10 @@
         <v>389309.0789</v>
       </c>
       <c r="K30" s="1">
-        <v>305693.6585</v>
+        <v>305699.7964</v>
       </c>
       <c r="L30" s="1">
-        <v>13.7015</v>
+        <v>13.7018</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4264</v>
@@ -10595,10 +10598,10 @@
         <v>404436.0329</v>
       </c>
       <c r="K31" s="1">
-        <v>305058.3097</v>
+        <v>305066.9846</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6971</v>
+        <v>13.6975</v>
       </c>
       <c r="M31" s="1">
         <v>0.75</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>17.107</v>
@@ -10648,10 +10651,10 @@
         <v>444980.8628</v>
       </c>
       <c r="K32" s="1">
-        <v>315372.3308</v>
+        <v>315381.0057</v>
       </c>
       <c r="L32" s="1">
-        <v>13.7727</v>
+        <v>13.7731</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.8894</v>
@@ -10701,10 +10704,10 @@
         <v>450006.0265</v>
       </c>
       <c r="K33" s="1">
-        <v>315450.8701</v>
+        <v>315459.545</v>
       </c>
       <c r="L33" s="1">
-        <v>13.7734</v>
+        <v>13.7737</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4004</v>
@@ -10754,10 +10757,10 @@
         <v>468755.117</v>
       </c>
       <c r="K34" s="1">
-        <v>336374.2354</v>
+        <v>336382.9103</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9347</v>
+        <v>13.9351</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3877</v>
@@ -10807,10 +10810,10 @@
         <v>452523.7817</v>
       </c>
       <c r="K35" s="1">
-        <v>364369.3954</v>
+        <v>364378.0703</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0994</v>
+        <v>14.0997</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6367</v>
@@ -10860,10 +10863,10 @@
         <v>440911.717</v>
       </c>
       <c r="K36" s="1">
-        <v>407003.932</v>
+        <v>407012.6069</v>
       </c>
       <c r="L36" s="1">
-        <v>14.2269</v>
+        <v>14.2272</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.0061</v>
@@ -10913,10 +10916,10 @@
         <v>400561.8047</v>
       </c>
       <c r="K37" s="1">
-        <v>440026.465</v>
+        <v>440035.1399</v>
       </c>
       <c r="L37" s="1">
-        <v>14.2589</v>
+        <v>14.2592</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.835</v>
@@ -10966,10 +10969,10 @@
         <v>450570.5527</v>
       </c>
       <c r="K38" s="1">
-        <v>450026.465</v>
+        <v>450035.1399</v>
       </c>
       <c r="L38" s="1">
-        <v>14.2292</v>
+        <v>14.2295</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.3824</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8672</v>
+        <v>13.8704</v>
       </c>
       <c r="E3" s="1">
-        <v>13.9236</v>
+        <v>13.9262</v>
       </c>
       <c r="F3" s="1">
-        <v>14.0317</v>
+        <v>14.0339</v>
       </c>
       <c r="G3" s="1">
-        <v>14.2292</v>
+        <v>14.2295</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>103921.9984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9896</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1583</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0638</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0127</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0012</v>
       </c>
     </row>
   </sheetData>
